--- a/Base/Teams/Cardinals/Players Data.xlsx
+++ b/Base/Teams/Cardinals/Players Data.xlsx
@@ -484,16 +484,16 @@
         <v>5</v>
       </c>
       <c r="C2">
+        <v>24</v>
+      </c>
+      <c r="D2">
         <v>20</v>
       </c>
-      <c r="D2">
-        <v>17</v>
-      </c>
       <c r="E2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -587,10 +587,10 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -624,16 +624,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -726,16 +726,16 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -752,10 +752,10 @@
         <v>10</v>
       </c>
       <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -778,22 +778,22 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
       <c r="H5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -804,10 +804,10 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>14</v>
@@ -830,10 +830,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>15</v>
@@ -842,7 +842,7 @@
         <v>9</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -856,10 +856,10 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -960,10 +960,10 @@
         <v>26</v>
       </c>
       <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
         <v>2</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -986,10 +986,10 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>6</v>

--- a/Base/Teams/Cardinals/Players Data.xlsx
+++ b/Base/Teams/Cardinals/Players Data.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Cardinals/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_745008C736098F4CDBD22837F5EA4577C1B17DCC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9FB392F-B220-41B2-9463-D99017213F63}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -101,8 +107,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +171,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -211,7 +225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,9 +257,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,6 +309,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,14 +502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -484,19 +534,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -516,7 +566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,19 +594,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -576,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -596,7 +646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -604,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -616,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -624,7 +674,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -636,7 +686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -662,14 +712,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -700,25 +752,25 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -726,10 +778,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -738,13 +790,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -770,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -778,25 +830,25 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -804,25 +856,25 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -830,16 +882,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -848,7 +900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -856,13 +908,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -874,7 +926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -900,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -926,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -952,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -978,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -986,10 +1038,10 @@
         <v>13</v>
       </c>
       <c r="C13">
+        <v>44</v>
+      </c>
+      <c r="D13">
         <v>37</v>
-      </c>
-      <c r="D13">
-        <v>32</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -998,10 +1050,10 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Cardinals/Players Data.xlsx
+++ b/Base/Teams/Cardinals/Players Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Cardinals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_745008C736098F4CDBD22837F5EA4577C1B17DCC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9FB392F-B220-41B2-9463-D99017213F63}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_AF9A6ACE6C694B5637F02D37F5EA457771350214" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43B762F5-2E53-4700-AB2C-C663389C59F2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -47,6 +47,9 @@
     <t>C.Streveler</t>
   </si>
   <si>
+    <t>C.Edmonds</t>
+  </si>
+  <si>
     <t>J.Conner</t>
   </si>
   <si>
@@ -81,12 +84,6 @@
   </si>
   <si>
     <t>RZ Comp</t>
-  </si>
-  <si>
-    <t>C.Edmonds</t>
-  </si>
-  <si>
-    <t>D.Hopkins</t>
   </si>
   <si>
     <t>A.Green</t>
@@ -503,9 +500,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -534,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -594,16 +593,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -614,16 +613,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -634,16 +633,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -654,16 +653,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -674,16 +673,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -694,15 +693,35 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
@@ -713,10 +732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,22 +745,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -749,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
         <v>20</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -775,13 +794,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="D3">
         <v>24</v>
-      </c>
-      <c r="D3">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -801,7 +820,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -830,22 +849,22 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -853,25 +872,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
         <v>22</v>
-      </c>
-      <c r="C6">
-        <v>48</v>
-      </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>19</v>
       </c>
       <c r="F6">
         <v>13</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -879,22 +898,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -905,25 +924,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -934,22 +953,22 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -960,22 +979,22 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -986,13 +1005,13 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1009,50 +1028,24 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>44</v>
-      </c>
-      <c r="D13">
-        <v>37</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>7</v>
-      </c>
-      <c r="H13">
         <v>4</v>
       </c>
     </row>

--- a/Base/Teams/Cardinals/Players Data.xlsx
+++ b/Base/Teams/Cardinals/Players Data.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Cardinals/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_AF9A6ACE6C694B5637F02D37F5EA457771350214" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43B762F5-2E53-4700-AB2C-C663389C59F2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -104,8 +98,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,14 +162,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -222,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,27 +240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,24 +274,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,16 +449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -533,10 +481,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>13</v>
@@ -545,7 +493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -565,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -585,7 +533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -593,19 +541,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -625,7 +573,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -639,13 +587,13 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -665,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -685,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -705,7 +653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -731,16 +679,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -771,10 +717,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -783,13 +729,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -815,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -841,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -849,16 +795,16 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>33</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>14</v>
@@ -867,7 +813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -875,13 +821,13 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>13</v>
@@ -893,7 +839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -919,7 +865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -927,25 +873,25 @@
         <v>22</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -971,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -997,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1005,10 +951,10 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1023,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1031,19 +977,19 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D12">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12">
         <v>4</v>

--- a/Base/Teams/Cardinals/Players Data.xlsx
+++ b/Base/Teams/Cardinals/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>E.Benjamin</t>
+  </si>
+  <si>
+    <t>G.Dortch</t>
   </si>
   <si>
     <t>C.Kirk</t>
@@ -450,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,13 +484,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>23</v>
@@ -541,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -581,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -601,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -621,13 +624,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -641,16 +644,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -661,15 +664,35 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
@@ -680,7 +703,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -691,22 +714,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -717,10 +740,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -729,10 +752,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -766,19 +789,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -792,25 +815,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -821,22 +844,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -844,22 +867,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -870,25 +893,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C8">
+        <v>64</v>
+      </c>
+      <c r="D8">
+        <v>52</v>
+      </c>
+      <c r="E8">
+        <v>27</v>
+      </c>
+      <c r="F8">
         <v>14</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>8</v>
       </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
       <c r="H8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -896,25 +919,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
         <v>4</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -922,25 +945,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -948,25 +971,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -974,24 +997,76 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>56</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
         <v>10</v>
       </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>9</v>
-      </c>
-      <c r="H12">
+      <c r="H14">
         <v>4</v>
       </c>
     </row>

--- a/Base/Teams/Cardinals/Players Data.xlsx
+++ b/Base/Teams/Cardinals/Players Data.xlsx
@@ -484,13 +484,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>23</v>
@@ -544,13 +544,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>22</v>
@@ -564,16 +564,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F6">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -604,16 +604,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -746,7 +746,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -766,22 +766,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -792,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -818,10 +818,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -844,10 +844,10 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>17</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -896,19 +896,19 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D8">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -922,13 +922,13 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -948,13 +948,13 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1000,10 +1000,10 @@
         <v>25</v>
       </c>
       <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
         <v>2</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1052,22 +1052,22 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D14">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
